--- a/BASIC VERBS.xlsx
+++ b/BASIC VERBS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\N 5 LEVEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D59CAB-8448-45C1-9A92-5D97258846AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0B76B5-5974-46C9-AFA1-34DA787BD93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="555">
   <si>
     <t>verbs</t>
   </si>
@@ -1288,6 +1288,693 @@
   </si>
   <si>
     <t>ひいて</t>
+  </si>
+  <si>
+    <t>atte</t>
+  </si>
+  <si>
+    <t>atta</t>
+  </si>
+  <si>
+    <t>utaimasen</t>
+  </si>
+  <si>
+    <t>utaimashita</t>
+  </si>
+  <si>
+    <t>utaimsendeshita</t>
+  </si>
+  <si>
+    <t>utatte</t>
+  </si>
+  <si>
+    <t>utatta</t>
+  </si>
+  <si>
+    <t>aratte</t>
+  </si>
+  <si>
+    <t>aratta</t>
+  </si>
+  <si>
+    <t>araimasendeshita</t>
+  </si>
+  <si>
+    <t>araimashita</t>
+  </si>
+  <si>
+    <t>araimasen</t>
+  </si>
+  <si>
+    <t>araimasu</t>
+  </si>
+  <si>
+    <t>aimasen</t>
+  </si>
+  <si>
+    <t>aimashita</t>
+  </si>
+  <si>
+    <t>aimasendeshita</t>
+  </si>
+  <si>
+    <t>aimasu</t>
+  </si>
+  <si>
+    <t>moraimasu</t>
+  </si>
+  <si>
+    <t>moraimasen</t>
+  </si>
+  <si>
+    <t>moraimashita</t>
+  </si>
+  <si>
+    <t>moraimasendeshita</t>
+  </si>
+  <si>
+    <t>moratte</t>
+  </si>
+  <si>
+    <t>moratta</t>
+  </si>
+  <si>
+    <t>uchimasen</t>
+  </si>
+  <si>
+    <t>uchimashita</t>
+  </si>
+  <si>
+    <t>uchimasendeshita</t>
+  </si>
+  <si>
+    <t>mochimasu</t>
+  </si>
+  <si>
+    <t>mochimasen</t>
+  </si>
+  <si>
+    <t>mochimashita</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mochimasendeshita</t>
+  </si>
+  <si>
+    <t>motta</t>
+  </si>
+  <si>
+    <t>motte</t>
+  </si>
+  <si>
+    <t>machimasu</t>
+  </si>
+  <si>
+    <t>machimasen</t>
+  </si>
+  <si>
+    <t>machimashita</t>
+  </si>
+  <si>
+    <t>machimasendeshita</t>
+  </si>
+  <si>
+    <t>matte</t>
+  </si>
+  <si>
+    <t>matta</t>
+  </si>
+  <si>
+    <t>tachimasu</t>
+  </si>
+  <si>
+    <t>tachimasen</t>
+  </si>
+  <si>
+    <t>tachimashita</t>
+  </si>
+  <si>
+    <t>tachimasendeshita</t>
+  </si>
+  <si>
+    <t>tatte</t>
+  </si>
+  <si>
+    <t>tatta</t>
+  </si>
+  <si>
+    <t>sodachimasu</t>
+  </si>
+  <si>
+    <t>sodachimasen</t>
+  </si>
+  <si>
+    <t>sodachimashita</t>
+  </si>
+  <si>
+    <t>sodachimasendeshita</t>
+  </si>
+  <si>
+    <t>sodatte</t>
+  </si>
+  <si>
+    <t>sodatta</t>
+  </si>
+  <si>
+    <t>kachimasu</t>
+  </si>
+  <si>
+    <t>kachimasen</t>
+  </si>
+  <si>
+    <t>kachimashita</t>
+  </si>
+  <si>
+    <t>kachimasendeshita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">katte </t>
+  </si>
+  <si>
+    <t>katta</t>
+  </si>
+  <si>
+    <t>naraimasu</t>
+  </si>
+  <si>
+    <t>naraimasen</t>
+  </si>
+  <si>
+    <t>naraimashita</t>
+  </si>
+  <si>
+    <t>naraimasendeshita</t>
+  </si>
+  <si>
+    <t>naratte</t>
+  </si>
+  <si>
+    <t>naratta</t>
+  </si>
+  <si>
+    <t>iimasu</t>
+  </si>
+  <si>
+    <t>iimasen</t>
+  </si>
+  <si>
+    <t>iimashita</t>
+  </si>
+  <si>
+    <t>iimasendeshita</t>
+  </si>
+  <si>
+    <t>iitte</t>
+  </si>
+  <si>
+    <t>iitta</t>
+  </si>
+  <si>
+    <t>tsukaimasen</t>
+  </si>
+  <si>
+    <t>tsukaimasu</t>
+  </si>
+  <si>
+    <t>tsukaimashita</t>
+  </si>
+  <si>
+    <t>tsukaimasendeshita</t>
+  </si>
+  <si>
+    <t>tsukatte</t>
+  </si>
+  <si>
+    <t>tsukatta</t>
+  </si>
+  <si>
+    <t>suimasu</t>
+  </si>
+  <si>
+    <t>suimasen</t>
+  </si>
+  <si>
+    <t>suimashita</t>
+  </si>
+  <si>
+    <t>suimasendeshita</t>
+  </si>
+  <si>
+    <t>suitte</t>
+  </si>
+  <si>
+    <t>suitta</t>
+  </si>
+  <si>
+    <t>omoimasu</t>
+  </si>
+  <si>
+    <t>omoimasen</t>
+  </si>
+  <si>
+    <t>omoimashita</t>
+  </si>
+  <si>
+    <t>omoimasendeshita</t>
+  </si>
+  <si>
+    <t>omotte</t>
+  </si>
+  <si>
+    <t>omotta</t>
+  </si>
+  <si>
+    <t>waraimasu</t>
+  </si>
+  <si>
+    <t>waraimasen</t>
+  </si>
+  <si>
+    <t>waraimashita</t>
+  </si>
+  <si>
+    <t>waraimasendeshita</t>
+  </si>
+  <si>
+    <t>waratte</t>
+  </si>
+  <si>
+    <t>waratta</t>
+  </si>
+  <si>
+    <t>haraimasu</t>
+  </si>
+  <si>
+    <t>haraimasen</t>
+  </si>
+  <si>
+    <t>haraimashita</t>
+  </si>
+  <si>
+    <t>haraimasendeshita</t>
+  </si>
+  <si>
+    <t>haratte</t>
+  </si>
+  <si>
+    <t>haratta</t>
+  </si>
+  <si>
+    <t>tetsudaimasu</t>
+  </si>
+  <si>
+    <t>tetsudaimasen</t>
+  </si>
+  <si>
+    <t>tetsudaimashita</t>
+  </si>
+  <si>
+    <t>tetsudaimasendeshita</t>
+  </si>
+  <si>
+    <t>tetsutte</t>
+  </si>
+  <si>
+    <t>tetsutta</t>
+  </si>
+  <si>
+    <t>okonaimasu</t>
+  </si>
+  <si>
+    <t>okonaimasen</t>
+  </si>
+  <si>
+    <t>okonaimashita</t>
+  </si>
+  <si>
+    <t>okonaimasendeshita</t>
+  </si>
+  <si>
+    <t>okotte</t>
+  </si>
+  <si>
+    <t>okotta</t>
+  </si>
+  <si>
+    <t>mayoimasu</t>
+  </si>
+  <si>
+    <t>mayoimasen</t>
+  </si>
+  <si>
+    <t>mayoimashita`</t>
+  </si>
+  <si>
+    <t>mayoimasendeshita</t>
+  </si>
+  <si>
+    <t>mayotte</t>
+  </si>
+  <si>
+    <t>mayotta</t>
+  </si>
+  <si>
+    <t>mimasen</t>
+  </si>
+  <si>
+    <t>mimashita</t>
+  </si>
+  <si>
+    <t>mimasendeshita</t>
+  </si>
+  <si>
+    <t>kazarimasen</t>
+  </si>
+  <si>
+    <t>kazarimashita</t>
+  </si>
+  <si>
+    <t>kazarimasendeshita</t>
+  </si>
+  <si>
+    <t>katte</t>
+  </si>
+  <si>
+    <t>orimasu</t>
+  </si>
+  <si>
+    <t>orimasen</t>
+  </si>
+  <si>
+    <t>orimashita</t>
+  </si>
+  <si>
+    <t>orimasendeshita</t>
+  </si>
+  <si>
+    <t>niteimasu</t>
+  </si>
+  <si>
+    <t>niteimashita</t>
+  </si>
+  <si>
+    <t>niteimasendeshita</t>
+  </si>
+  <si>
+    <t>niteimasen</t>
+  </si>
+  <si>
+    <t>niteite</t>
+  </si>
+  <si>
+    <t>niteita</t>
+  </si>
+  <si>
+    <t>dekimasu</t>
+  </si>
+  <si>
+    <t>dekimasen</t>
+  </si>
+  <si>
+    <t>dekimashita</t>
+  </si>
+  <si>
+    <t>dekimasendeshita</t>
+  </si>
+  <si>
+    <t>dekite</t>
+  </si>
+  <si>
+    <t>dekita</t>
+  </si>
+  <si>
+    <t>oshiimasu</t>
+  </si>
+  <si>
+    <t>oshiimasen</t>
+  </si>
+  <si>
+    <t>oshiimashita</t>
+  </si>
+  <si>
+    <t>oshiimasendeshita</t>
+  </si>
+  <si>
+    <t>oshiita</t>
+  </si>
+  <si>
+    <t>oshiite</t>
+  </si>
+  <si>
+    <t>wakaremasu</t>
+  </si>
+  <si>
+    <t>wakaremasen</t>
+  </si>
+  <si>
+    <t>wakaremashita</t>
+  </si>
+  <si>
+    <t>wakaremasendeshita</t>
+  </si>
+  <si>
+    <t>wakarete</t>
+  </si>
+  <si>
+    <t>wakareta</t>
+  </si>
+  <si>
+    <t>kurabemasu</t>
+  </si>
+  <si>
+    <t>kurabemasen</t>
+  </si>
+  <si>
+    <t>kurabemashita</t>
+  </si>
+  <si>
+    <t>kurabemasendeshita</t>
+  </si>
+  <si>
+    <t>kurabete</t>
+  </si>
+  <si>
+    <t>kurabeta</t>
+  </si>
+  <si>
+    <t>homemasu</t>
+  </si>
+  <si>
+    <t>homemasen</t>
+  </si>
+  <si>
+    <t>homemashita</t>
+  </si>
+  <si>
+    <t>homemasendeshita</t>
+  </si>
+  <si>
+    <t>homete</t>
+  </si>
+  <si>
+    <t>hometa</t>
+  </si>
+  <si>
+    <t>demasu</t>
+  </si>
+  <si>
+    <t>demasen</t>
+  </si>
+  <si>
+    <t>demashita</t>
+  </si>
+  <si>
+    <t>demasendeshita</t>
+  </si>
+  <si>
+    <t>dete</t>
+  </si>
+  <si>
+    <t>deta</t>
+  </si>
+  <si>
+    <t>kiemasu</t>
+  </si>
+  <si>
+    <t>kiemasen</t>
+  </si>
+  <si>
+    <t>kiemashita</t>
+  </si>
+  <si>
+    <t>kiemasendeshita</t>
+  </si>
+  <si>
+    <t>kiete</t>
+  </si>
+  <si>
+    <t>kieta</t>
+  </si>
+  <si>
+    <t>tsutomemasu</t>
+  </si>
+  <si>
+    <t>tsutomemasen</t>
+  </si>
+  <si>
+    <t>tsutomemashita</t>
+  </si>
+  <si>
+    <t>tsutomemasendeshita</t>
+  </si>
+  <si>
+    <t>tsutomete</t>
+  </si>
+  <si>
+    <t>tsutometa</t>
+  </si>
+  <si>
+    <t>shirabemasu</t>
+  </si>
+  <si>
+    <t>shirabemasen</t>
+  </si>
+  <si>
+    <t>shirabemashita</t>
+  </si>
+  <si>
+    <t>shirabemasendeshita</t>
+  </si>
+  <si>
+    <t>shirabete</t>
+  </si>
+  <si>
+    <t>shirabeta</t>
+  </si>
+  <si>
+    <t>atsumemasu</t>
+  </si>
+  <si>
+    <t>atsumemasen</t>
+  </si>
+  <si>
+    <t>atsumemashita</t>
+  </si>
+  <si>
+    <t>atsumemasendeshita</t>
+  </si>
+  <si>
+    <t>atsumete</t>
+  </si>
+  <si>
+    <t>atsumeta</t>
+  </si>
+  <si>
+    <t>kangaemasu</t>
+  </si>
+  <si>
+    <t>kangaemasen</t>
+  </si>
+  <si>
+    <t>kangaemashita</t>
+  </si>
+  <si>
+    <t>kangaemasendeshita</t>
+  </si>
+  <si>
+    <t>kangaite</t>
+  </si>
+  <si>
+    <t>kangaita</t>
+  </si>
+  <si>
+    <t>misemasu</t>
+  </si>
+  <si>
+    <t>misemasen</t>
+  </si>
+  <si>
+    <t>misemashita</t>
+  </si>
+  <si>
+    <t>misemasendeshita</t>
+  </si>
+  <si>
+    <t>misete</t>
+  </si>
+  <si>
+    <t>miseta</t>
+  </si>
+  <si>
+    <t>tabemasu</t>
+  </si>
+  <si>
+    <t>tabemasen</t>
+  </si>
+  <si>
+    <t>tabemashita</t>
+  </si>
+  <si>
+    <t>tabemasendeshita</t>
+  </si>
+  <si>
+    <r>
+      <t>mi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>te</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ori</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>te</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ori</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ta</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1772,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
@@ -1957,6 +2644,21 @@
       <c r="E11" s="1" t="s">
         <v>266</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C12" s="7" t="s">
@@ -1965,6 +2667,24 @@
       <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C13" s="7" t="s">
@@ -1973,6 +2693,24 @@
       <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C14" s="7" t="s">
@@ -1981,6 +2719,24 @@
       <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C15" s="7" t="s">
@@ -1989,6 +2745,24 @@
       <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C16" s="7" t="s">
@@ -1997,6 +2771,24 @@
       <c r="D16" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C17" s="7" t="s">
@@ -2005,6 +2797,24 @@
       <c r="D17" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C18" s="7" t="s">
@@ -2013,6 +2823,24 @@
       <c r="D18" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C19" s="7" t="s">
@@ -2021,6 +2849,24 @@
       <c r="D19" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C20" s="7" t="s">
@@ -2029,6 +2875,24 @@
       <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C21" s="7" t="s">
@@ -2037,6 +2901,24 @@
       <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C22" s="7" t="s">
@@ -2045,6 +2927,24 @@
       <c r="D22" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C23" s="7" t="s">
@@ -2053,6 +2953,24 @@
       <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C24" s="7" t="s">
@@ -2060,6 +2978,24 @@
       </c>
       <c r="D24" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
@@ -2409,6 +3345,15 @@
       <c r="E68" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="F68" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="I68" s="1" t="s">
         <v>337</v>
       </c>
@@ -2423,6 +3368,24 @@
       <c r="D69" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="E69" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C70" s="7" t="s">
@@ -2431,6 +3394,24 @@
       <c r="D70" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="E70" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C71" s="7" t="s">
@@ -2439,6 +3420,24 @@
       <c r="D71" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="E71" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C72" s="7" t="s">
@@ -2447,6 +3446,24 @@
       <c r="D72" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="E72" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C73" s="7" t="s">
@@ -2455,6 +3472,24 @@
       <c r="D73" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="E73" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C74" s="7"/>
@@ -2821,7 +3856,21 @@
       <c r="E121" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="H121" s="12"/>
+      <c r="F121" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.5">
       <c r="C122" s="7"/>
@@ -2844,8 +3893,21 @@
       <c r="E125" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H125" s="12"/>
-      <c r="J125" s="12"/>
+      <c r="F125" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J125" s="12" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B126" s="15" t="s">
@@ -2857,6 +3919,24 @@
       <c r="D126" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="E126" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.5">
       <c r="C127" s="7" t="s">
@@ -2865,6 +3945,24 @@
       <c r="D127" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="E127" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.5">
       <c r="C128" s="7" t="s">
@@ -2873,104 +3971,332 @@
       <c r="D128" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.5">
+      <c r="E128" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="129" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C129" s="7" t="s">
         <v>192</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.5">
+      <c r="E129" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="130" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C130" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.5">
+      <c r="E130" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="131" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C131" s="7" t="s">
         <v>196</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.5">
+      <c r="E131" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="132" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C132" s="7" t="s">
         <v>198</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.5">
+      <c r="E132" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="133" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C133" s="7" t="s">
         <v>200</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.5">
+      <c r="E133" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="134" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C134" s="7" t="s">
         <v>202</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="135" spans="3:9" x14ac:dyDescent="0.5">
+      <c r="E134" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="135" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C135" s="7" t="s">
         <v>204</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.5">
+      <c r="E135" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="136" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C136" s="7" t="s">
         <v>206</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="137" spans="3:9" x14ac:dyDescent="0.5">
+      <c r="E136" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="137" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C137" s="7" t="s">
         <v>208</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="138" spans="3:9" x14ac:dyDescent="0.5">
+      <c r="E137" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="138" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C138" s="7" t="s">
         <v>210</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.5">
+      <c r="E138" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="139" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C139" s="7" t="s">
         <v>211</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="140" spans="3:9" x14ac:dyDescent="0.5">
+      <c r="E139" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="140" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C140" s="7" t="s">
         <v>213</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="141" spans="3:9" x14ac:dyDescent="0.5">
+      <c r="E140" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="141" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C141" s="7" t="s">
         <v>215</v>
       </c>
@@ -2978,15 +4304,15 @@
         <v>216</v>
       </c>
     </row>
-    <row r="142" spans="3:9" x14ac:dyDescent="0.5">
+    <row r="142" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C142" s="7"/>
     </row>
-    <row r="143" spans="3:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="3:10" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C143" s="13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="144" spans="3:9" x14ac:dyDescent="0.5">
+    <row r="144" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C144" s="7"/>
       <c r="H144" s="16"/>
       <c r="I144" s="17"/>
